--- a/src/Payless/TestData/Payless_GUITestData_ModifyReservation.xlsx
+++ b/src/Payless/TestData/Payless_GUITestData_ModifyReservation.xlsx
@@ -1,31 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmn\Desktop\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView windowHeight="9735" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Avis_GUI" sheetId="1" r:id="rId1"/>
-    <sheet name="Walkup_Rental" sheetId="2" r:id="rId2"/>
+    <sheet name="Payless_GUI" r:id="rId1" sheetId="1"/>
+    <sheet name="Walkup_Rental" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Doris Anto Pauline</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="I3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doris Anto Pauline:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Changed location from RST to MSP</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I11" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doris Anto Pauline:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Changed the location from LGA to JFK</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="237">
   <si>
     <t>REGION</t>
   </si>
@@ -402,188 +460,348 @@
     <t>09/17/18</t>
   </si>
   <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate</t>
-  </si>
-  <si>
-    <t>Create a Res (Daily) 3 HRS in US LOC for a NON Pref - with a Period rate and FTN number</t>
-  </si>
-  <si>
     <t>Reservation_No</t>
   </si>
   <si>
-    <t>09837396US2</t>
-  </si>
-  <si>
     <t>modoutsta</t>
   </si>
   <si>
     <t>JFK</t>
   </si>
   <si>
-    <t>Avis2018#</t>
-  </si>
-  <si>
-    <t>Ostendorfio</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>ERROR CODE: 33300 ADVANCED BOOKING VIOLATION</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>ERROR CODE: 33300 IZ RETURN RESTRICTED</t>
+    <t>CHECKINMonth</t>
+  </si>
+  <si>
+    <t>CHECKOUTMonth</t>
+  </si>
+  <si>
+    <t>FTNnumber</t>
+  </si>
+  <si>
+    <t>FTNcode</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>6011298802646020</t>
+  </si>
+  <si>
+    <t>https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?i_brand=i-payless&amp;mnemonic=</t>
+  </si>
+  <si>
+    <t>TCP_001_1Dy_Same_Day</t>
+  </si>
+  <si>
+    <t>TCP_007_1Dy_Period_Rate</t>
+  </si>
+  <si>
+    <t>TCP_002_1Dy_PDN-A</t>
+  </si>
+  <si>
+    <t>TCP_004_1Dy_PDN-C_Cool_Car</t>
+  </si>
+  <si>
+    <t>TCP_005_1Dy_PDN-D</t>
+  </si>
+  <si>
+    <t>TCP_006_1Dy_CPN_Money_Off</t>
+  </si>
+  <si>
+    <t>TCP_009_1Dy_Insurances_LDW_PAE</t>
+  </si>
+  <si>
+    <t>TCP_014_2Dys_PDN-S</t>
+  </si>
+  <si>
+    <t>TCP_015_2Dys_PDN-G_Govt</t>
+  </si>
+  <si>
+    <t>TCP_011_2Dys_One_Way_Fee_Cool_Car</t>
+  </si>
+  <si>
+    <t>PAyless</t>
+  </si>
+  <si>
+    <t>TCB_002_1Dy_PDN-A</t>
+  </si>
+  <si>
+    <t>TCB_003_1Dy_PDN-K</t>
+  </si>
+  <si>
+    <t>TCB_015_2Dys_PDN-G_Govt</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>BNA</t>
+  </si>
+  <si>
+    <t>Avis18nov$</t>
+  </si>
+  <si>
+    <t>YYZ</t>
+  </si>
+  <si>
+    <t>YUL</t>
+  </si>
+  <si>
+    <t>05593347US4</t>
+  </si>
+  <si>
+    <t>05593350US0</t>
+  </si>
+  <si>
+    <t>05593353US3</t>
+  </si>
+  <si>
+    <t>05593359US2</t>
+  </si>
+  <si>
+    <t>05593362US5</t>
+  </si>
+  <si>
+    <t>05593365US1</t>
+  </si>
+  <si>
+    <t>05593368US4</t>
+  </si>
+  <si>
+    <t>05593374US3</t>
+  </si>
+  <si>
+    <t>05593377US6</t>
+  </si>
+  <si>
+    <t>05593383US5</t>
+  </si>
+  <si>
+    <t>05593497CA0</t>
+  </si>
+  <si>
+    <t>05593500CA3</t>
+  </si>
+  <si>
+    <t>05593494CA4</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1/2 day pickup/dropoff same day with Lastname</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1 day with a Period rate with Firstname</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1 day  with PDN Type A (Group Association) with car group D</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1 day  with PDN Type C (Corporate) Cool_Car_credit card Visa</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1 day  with PDN Type D (Triple A) with Credit card Discover</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1 day  with CPN $ off with Credit card master</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1 day  with Insurances LDW and PAE with FTN number</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days  with PDN S (TeleSales) with FTN number</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days  with PDN G (Government) with FTN number</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days  with One Way Fee Cool_Car with FTN number</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in CAN Corporate Airport Station for (Daily) 1 day with PDN Type A (Group Association) with First name</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in CAN Corporate Airport Station for (Daily) 1 day with PDN Type K (Competitive) with Last name</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in CAN Corporate Airport Station for (Daily) 2 days with PDN G (Government) with car group D</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>4275330000886359</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5424321019208021</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>1147358</t>
+  </si>
+  <si>
+    <t>0880KC2</t>
+  </si>
+  <si>
+    <t>Johnsnow</t>
+  </si>
+  <si>
+    <t>Lanster</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593347US4</t>
+  </si>
+  <si>
+    <t>REBOOKED</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>11/23/18</t>
+  </si>
+  <si>
+    <t>11/24/18</t>
+  </si>
+  <si>
+    <t>1 Day 0 Hours</t>
+  </si>
+  <si>
+    <t>$62.32</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593350US0</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>$199.99</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593353US3</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>$249.99</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593359US2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593362US5</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>$167.19</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593365US1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>$54.71</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593368US4</t>
+  </si>
+  <si>
+    <t>$145.94</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593374US3</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>11/25/18</t>
+  </si>
+  <si>
+    <t>$87.17</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593377US6</t>
+  </si>
+  <si>
+    <t>$499.98</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593383US5</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>$897.98</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593497CA0</t>
+  </si>
+  <si>
+    <t>$101.28</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>qyeqwtyqw</t>
-  </si>
-  <si>
-    <t>REBOOKED</t>
-  </si>
-  <si>
-    <t>09/25/18</t>
-  </si>
-  <si>
-    <t>09/26/18</t>
-  </si>
-  <si>
-    <t>1 Day 0 Hours</t>
-  </si>
-  <si>
-    <t>$56.00</t>
-  </si>
-  <si>
-    <t>$17.95</t>
-  </si>
-  <si>
-    <t>CHECKINMonth</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>CHECKOUTMonth</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>09/27/18</t>
-  </si>
-  <si>
-    <t>$51.00</t>
-  </si>
-  <si>
-    <t>09705303US6</t>
-  </si>
-  <si>
-    <t>YF</t>
-  </si>
-  <si>
-    <t>09/28/18</t>
-  </si>
-  <si>
-    <t>$142.00</t>
-  </si>
-  <si>
-    <t>FTNnumber</t>
-  </si>
-  <si>
-    <t>09880413US4</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_checkoutlocation</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_checkinlocation</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_Lastname</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_firstname</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_checkoutandcheckintime</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_Cargroup</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_FTN</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_CP</t>
-  </si>
-  <si>
-    <t>FTNcode</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>967179656</t>
-  </si>
-  <si>
-    <t>$62.00</t>
-  </si>
-  <si>
-    <t>$49.77</t>
-  </si>
-  <si>
-    <t>$26.00</t>
-  </si>
-  <si>
-    <t>$209.53</t>
-  </si>
-  <si>
-    <t>RSN</t>
-  </si>
-  <si>
-    <t>PAI</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_Insurance</t>
-  </si>
-  <si>
-    <t>$41.00</t>
-  </si>
-  <si>
-    <t>$230.24</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_3Hrs_Period_Rate_Ccard</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>6011298802646020</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?i_brand=i-payless&amp;mnemonic=</t>
+    <t>Reservation update completed successfully. 05593500CA3</t>
+  </si>
+  <si>
+    <t>$79.55</t>
+  </si>
+  <si>
+    <t>Reservation update completed successfully. 05593494CA4</t>
+  </si>
+  <si>
+    <t>$121.70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,13 +839,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -635,17 +846,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -699,97 +910,101 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="5" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -806,10 +1021,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -844,7 +1059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,7 +1094,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,21 +1188,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1004,7 +1219,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1056,72 +1271,72 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="61.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="98.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="100.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="69.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" style="14" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.7109375" style="14" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="46.28515625" style="14" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.85546875" style="14" customWidth="1"/>
-    <col min="28" max="28" width="28.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="28.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="21" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="18" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="14.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="13.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="22.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="19.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="19.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="21.7109375" style="14" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="63.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="19.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="49" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="1" style="14" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="14" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="16.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="61.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="14" width="98.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="100.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="69.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="14" width="6.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="8.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="14" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="14" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="14" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="14" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="14" width="16.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="14" width="16.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="14" width="11.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="14" width="11.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="14" width="14.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="14" width="14.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="14" width="18.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="14" width="8.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="14" width="20.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="14" width="46.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="14" width="8.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="14" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="14" width="12.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="14" width="28.140625" collapsed="true"/>
+    <col min="29" max="31" customWidth="true" style="14" width="28.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="14" width="17.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="14" width="21.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="14" width="18.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="14" width="14.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="14" width="14.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="14" width="16.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="14" width="20.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="14" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="14" width="13.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="14" width="13.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="14" width="14.0" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="14" width="22.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="14" width="19.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="14" width="19.85546875" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="14" width="21.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="14" width="63.140625" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="14" width="19.85546875" collapsed="true"/>
+    <col min="49" max="16384" style="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>13</v>
@@ -1174,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>15</v>
@@ -1201,19 +1416,19 @@
         <v>59</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="11" t="s">
         <v>55</v>
@@ -1275,41 +1490,55 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="27"/>
+      <c r="K2" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>181</v>
+      </c>
       <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="15"/>
+      <c r="N2" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="15"/>
+      <c r="R2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="U2" s="27"/>
       <c r="V2" s="15"/>
       <c r="W2" s="22"/>
@@ -1319,32 +1548,56 @@
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
       <c r="AC2" s="22"/>
-      <c r="AD2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>130</v>
-      </c>
+      <c r="AD2" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE2" s="29"/>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
+      <c r="AH2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT2" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="AU2" s="21" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="AV2" s="21" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
@@ -1352,46 +1605,58 @@
         <v>17</v>
       </c>
       <c r="B3" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>29</v>
+      <c r="H3" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="30" t="s">
-        <v>131</v>
+      <c r="K3" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="15"/>
+      <c r="M3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="U3" s="27"/>
       <c r="V3" s="15"/>
       <c r="W3" s="22"/>
@@ -1401,30 +1666,56 @@
       <c r="AA3" s="22"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
-      <c r="AD3" s="29" t="s">
-        <v>105</v>
+      <c r="AD3" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="AE3" s="29"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
+      <c r="AH3" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ3" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN3" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO3" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP3" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ3" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT3" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="AU3" s="21" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="AV3" s="21" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
@@ -1432,47 +1723,59 @@
         <v>17</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>81</v>
+      <c r="H4" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>131</v>
+      <c r="K4" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="L4" s="27"/>
-      <c r="M4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="27"/>
+      <c r="R4" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="V4" s="15"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
@@ -1481,387 +1784,433 @@
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
-      <c r="AD4" s="29" t="s">
-        <v>105</v>
+      <c r="AD4" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="AE4" s="29"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="21" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AI4" s="21" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="AM4" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="AO4" s="21" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="AP4" s="21" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="AQ4" s="21" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="AR4" s="21" t="s">
         <v>92</v>
       </c>
       <c r="AS4" s="21" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="AT4" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AU4" s="21" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="AV4" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>29</v>
+      <c r="H5" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>132</v>
-      </c>
+      <c r="K5" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="27"/>
       <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
+      <c r="N5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="15"/>
+      <c r="R5" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="U5" s="27"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="W5" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA5" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="AB5" s="22"/>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="29" t="s">
-        <v>105</v>
+      <c r="AD5" s="38" t="s">
+        <v>158</v>
       </c>
       <c r="AE5" s="29"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="21" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="AI5" s="21" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="AJ5" s="21" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AK5" s="21" t="s">
         <v>106</v>
       </c>
       <c r="AL5" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM5" s="21" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="AN5" s="21" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="AO5" s="21" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="AP5" s="21" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="AQ5" s="21" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="AR5" s="21" t="s">
         <v>92</v>
       </c>
       <c r="AS5" s="21" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="AT5" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AU5" s="21" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="AV5" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>29</v>
+      <c r="H6" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>131</v>
+      <c r="K6" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
-      <c r="N6" s="28" t="s">
-        <v>146</v>
+      <c r="N6" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="28"/>
       <c r="R6" s="28" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="U6" s="27"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="W6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA6" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="AB6" s="22"/>
       <c r="AC6" s="22"/>
-      <c r="AD6" s="29" t="s">
-        <v>105</v>
+      <c r="AD6" s="38" t="s">
+        <v>159</v>
       </c>
       <c r="AE6" s="29"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="21" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="AI6" s="21" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="AJ6" s="21" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="AK6" s="21" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="AL6" s="21" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="AM6" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AN6" s="21" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="AO6" s="21" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AP6" s="21" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="AQ6" s="21" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="AR6" s="21" t="s">
         <v>92</v>
       </c>
       <c r="AS6" s="21" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="AT6" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AU6" s="21" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="AV6" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row ht="45" r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31">
-        <v>1</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="33" t="s">
+      <c r="B7" s="19">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="31" t="s">
+      <c r="H7" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="T7" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI7" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK7" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN7" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO7" s="32" t="s">
+      <c r="K7" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" s="34"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI7" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ7" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK7" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL7" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="AP7" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR7" s="32" t="s">
+      <c r="AM7" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN7" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO7" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP7" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ7" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR7" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="AS7" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT7" s="32" t="s">
+      <c r="AS7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT7" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AU7" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV7" s="32" t="s">
+      <c r="AU7" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV7" s="31" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1870,90 +2219,104 @@
         <v>17</v>
       </c>
       <c r="B8" s="19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>174</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>29</v>
+      <c r="H8" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>131</v>
+      <c r="K8" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
+      <c r="N8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="27" t="s">
-        <v>106</v>
-      </c>
+      <c r="R8" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U8" s="27"/>
       <c r="V8" s="15"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="29" t="s">
-        <v>153</v>
+      <c r="AB8" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC8" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD8" s="38" t="s">
+        <v>161</v>
       </c>
       <c r="AE8" s="29"/>
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="21" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AI8" s="21" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="AJ8" s="21" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="AK8" s="21" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="AL8" s="21" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="AM8" s="21" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="AN8" s="21" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="AO8" s="21" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="AP8" s="21" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="AQ8" s="21" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="AR8" s="21" t="s">
         <v>92</v>
@@ -1965,7 +2328,7 @@
         <v>93</v>
       </c>
       <c r="AU8" s="21" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="AV8" s="21" t="s">
         <v>94</v>
@@ -1976,44 +2339,56 @@
         <v>17</v>
       </c>
       <c r="B9" s="19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>29</v>
+      <c r="H9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="J9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>131</v>
+      <c r="K9" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="15"/>
+      <c r="N9" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="15"/>
+      <c r="R9" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="U9" s="27"/>
       <c r="V9" s="15"/>
       <c r="W9" s="22"/>
@@ -2021,59 +2396,59 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
-      <c r="AB9" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC9" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD9" s="29" t="s">
-        <v>158</v>
+      <c r="AB9" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC9" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD9" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="AE9" s="29"/>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AI9" s="21" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="AJ9" s="21" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="AK9" s="21" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="AL9" s="21" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="AM9" s="21" t="s">
         <v>151</v>
       </c>
       <c r="AN9" s="21" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="AO9" s="21" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AQ9" s="21" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AR9" s="21" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="AS9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AT9" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="AU9" s="21" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AV9" s="21" t="s">
         <v>94</v>
@@ -2084,44 +2459,56 @@
         <v>17</v>
       </c>
       <c r="B10" s="19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>29</v>
+      <c r="H10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>131</v>
+      <c r="K10" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15"/>
+      <c r="N10" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="15"/>
+      <c r="R10" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="U10" s="27"/>
       <c r="V10" s="15"/>
       <c r="W10" s="22"/>
@@ -2129,57 +2516,59 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="29" t="s">
-        <v>158</v>
+      <c r="AB10" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC10" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD10" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="AE10" s="29"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="AG10" s="15"/>
       <c r="AH10" s="21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AI10" s="21" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="AJ10" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK10" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AK10" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="AL10" s="21" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="AM10" s="21" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="AN10" s="21" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="AO10" s="21" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="AP10" s="21" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AQ10" s="21" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="AR10" s="21" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="AS10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AT10" s="21" t="s">
-        <v>178</v>
-      </c>
       <c r="AU10" s="21" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="AV10" s="21" t="s">
         <v>94</v>
@@ -2190,44 +2579,56 @@
         <v>17</v>
       </c>
       <c r="B11" s="19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>29</v>
+      <c r="H11" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>131</v>
+      <c r="K11" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
+      <c r="N11" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="15"/>
+      <c r="R11" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="U11" s="27"/>
       <c r="V11" s="15"/>
       <c r="W11" s="22"/>
@@ -2235,135 +2636,439 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="29" t="s">
-        <v>158</v>
+      <c r="AB11" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC11" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD11" s="38" t="s">
+        <v>164</v>
       </c>
       <c r="AE11" s="29"/>
-      <c r="AF11" s="15" t="s">
-        <v>175</v>
-      </c>
+      <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
+      <c r="AH11" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI11" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ11" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK11" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL11" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN11" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO11" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ11" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU11" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV11" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B12" s="19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>29</v>
+      <c r="H12" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
+      <c r="K12" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
+      <c r="R12" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI12" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ12" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK12" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL12" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM12" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN12" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO12" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP12" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ12" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU12" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV12" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="19">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI13" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ13" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN13" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO13" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP13" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ13" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU13" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV13" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="19">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI14" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL14" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM14" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN14" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO14" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ14" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU14" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV14" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H4" r:id="rId2" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H5" r:id="rId3" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H6" r:id="rId4" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H7" r:id="rId5" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H8" r:id="rId6" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H9" r:id="rId7" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H10" r:id="rId8" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H11" r:id="rId9" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
-    <hyperlink ref="H12" r:id="rId10" display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId1" ref="H3"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId2" ref="H4"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId3" ref="H5"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId4" ref="H6"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId5" ref="H7"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId6" ref="H8"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId7" ref="H9"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId8" ref="H10"/>
+    <hyperlink display="https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?mnemonic" r:id="rId9" ref="H11"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD12"/>
@@ -2371,50 +3076,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="80.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="100.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="69.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="63.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="80.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="100.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="14" width="16.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="14" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="14" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="14" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="14" width="16.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="14" width="8.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="14" width="20.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="14" width="17.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="14" width="8.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="14" width="6.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="14" width="28.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="14" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="14" width="21.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="63.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3098,7 +3803,7 @@
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="9" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
@@ -3192,7 +3897,7 @@
       <c r="AO9" s="21"/>
       <c r="AP9" s="21"/>
     </row>
-    <row r="10" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3316,7 +4021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
@@ -3440,7 +4145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
@@ -3573,9 +4278,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" display="http://wizardgui-uat.avisbudget.com/wizardgui2/ui/wizard.jsf"/>
+    <hyperlink display="http://wizardgui-uat.avisbudget.com/wizardgui2/ui/wizard.jsf" r:id="rId1" ref="H17"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>